--- a/Excel/火灾损失表.xlsx
+++ b/Excel/火灾损失表.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stata-data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35FD1811-A616-4D1F-A523-C8EB42CE0C4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FFFF56-7B0A-4AA3-8450-C3D77CBC57FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13965" xr2:uid="{FDB78BFA-8B0E-42BF-9758-3F4187585144}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +34,81 @@
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>回归统计</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>标准误差</t>
+  </si>
+  <si>
+    <t>观测值</t>
+  </si>
+  <si>
+    <t>方差分析</t>
+  </si>
+  <si>
+    <t>回归分析</t>
+  </si>
+  <si>
+    <t>残差</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>下限 95.0%</t>
+  </si>
+  <si>
+    <t>上限 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
   </si>
 </sst>
 </file>
@@ -64,12 +140,32 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -78,8 +174,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,11 +506,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CAABD8-F50F-4F0A-9985-F886717B8325}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.96055586375167001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.92266756738771694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.91671891872523359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.3269367215905148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>839.83908475161002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>839.83908475161002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>155.10540624238871</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.33676429299374E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>70.39024858172337</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.4146345062864132</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>910.22933333333344</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10.30974394357559</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.4267714452707234</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.2259253419662901</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.6888512352902238E-6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7.2273916332765999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13.39209625387458</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7.2273916332765999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13.39209625387458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4.9136959521619135</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.39454342660233915</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12.454132095107578</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.3367642929937497E-8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4.0613366997167919</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.766055204607035</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.0613366997167919</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5.766055204607035</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613FCFE6-B524-4E18-9419-29169E54C0EC}">
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,5 +879,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/火灾损失表.xlsx
+++ b/Excel/火灾损失表.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FFFF56-7B0A-4AA3-8450-C3D77CBC57FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436013CB-B642-4A6B-AA75-151B981445CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13965" xr2:uid="{FDB78BFA-8B0E-42BF-9758-3F4187585144}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13965" activeTab="1" xr2:uid="{FDB78BFA-8B0E-42BF-9758-3F4187585144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +110,12 @@
   </si>
   <si>
     <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>预测 Y</t>
   </si>
 </sst>
 </file>
@@ -208,6 +215,305 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>X Variable 1 Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$25:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.81631018092609509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3543966574670314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6127453235203895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6887553664520105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9577986047224769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3350716804661147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35066888991106993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7508318000613308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.4853534191965636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13863653787181818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.371494556884393</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5851905090463063</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9167107482367385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5045154860472252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.8817885617908594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DA5C-44C0-98FA-49D2C70D7B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543339168"/>
+        <c:axId val="543340480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543339168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="543340480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543340480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>残差</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="543339168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C17943-23E8-4348-8469-6190730CFF9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CAABD8-F50F-4F0A-9985-F886717B8325}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -739,11 +1045,426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A19D8BF-211A-46CE-9B23-8396E78F4073}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.96055586375167001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.92266756738771694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.91671891872523359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.3269367215905148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>839.83908475161002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>839.83908475161002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>155.10540624238871</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.3367642929937449E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>70.39024858172337</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.4146345062864132</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>910.22933333333344</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10.30974394357559</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.4267714452707234</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.2259253419662901</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.6888512352902238E-6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7.2273916332765999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13.39209625387458</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7.2273916332765999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13.39209625387458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4.9136959521619135</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.39454342660233915</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12.454132095107578</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.3367642929937497E-8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4.0613366997167919</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.766055204607035</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.0613366997167919</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5.766055204607035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>27.016310180926094</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-0.81631018092609509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>19.154396657467032</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-1.3543966574670314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>32.91274532352039</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-1.6127453235203895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>21.61124463354799</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.6887553664520105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>25.542201395277523</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.9577986047224769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>37.335071680466115</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-1.3350716804661147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>13.74933111008893</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.35066888991106993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>25.050831800061331</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-2.7508318000613308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>23.085353419196565</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-3.4853534191965636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>31.438636537871819</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-0.13863653787181818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20.628505443115607</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.371494556884393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15.714809490953694</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.5851905090463063</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1">
+        <v>40.283289251763264</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.9167107482367385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1">
+        <v>33.895484513952773</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.5045154860472252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>28.981788561790861</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-2.8817885617908594</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613FCFE6-B524-4E18-9419-29169E54C0EC}">
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B17"/>
+      <selection activeCell="B3" sqref="B3:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
